--- a/Code/Results/Cases/Case_8_28/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_28/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.68321941441641</v>
+        <v>20.75092541907296</v>
       </c>
       <c r="C2">
-        <v>15.66758483696526</v>
+        <v>16.10768039427776</v>
       </c>
       <c r="D2">
-        <v>6.635591727303031</v>
+        <v>6.840476863302634</v>
       </c>
       <c r="E2">
-        <v>9.372452621905831</v>
+        <v>9.566879913001129</v>
       </c>
       <c r="F2">
-        <v>22.0995129371837</v>
+        <v>21.39891705742048</v>
       </c>
       <c r="G2">
-        <v>2.094483797125574</v>
+        <v>3.018846095024652</v>
       </c>
       <c r="H2">
-        <v>1.919019258604157</v>
+        <v>1.778163890538903</v>
       </c>
       <c r="I2">
-        <v>2.540119327667549</v>
+        <v>2.589216190815338</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.32109862080314</v>
+        <v>12.6867114476353</v>
       </c>
       <c r="L2">
-        <v>6.335306975311433</v>
+        <v>11.09680301052434</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.647812528209773</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.395632355515198</v>
       </c>
       <c r="O2">
-        <v>15.67499369890187</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>15.61777279551383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>15.77295797080937</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.96515761338729</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.34188327543546</v>
+        <v>19.43126132301482</v>
       </c>
       <c r="C3">
-        <v>14.69226728648623</v>
+        <v>15.05073274140608</v>
       </c>
       <c r="D3">
-        <v>6.398297055939013</v>
+        <v>6.616643109519589</v>
       </c>
       <c r="E3">
-        <v>9.126781505556364</v>
+        <v>9.355051601342961</v>
       </c>
       <c r="F3">
-        <v>21.76058574924064</v>
+        <v>21.06351245862273</v>
       </c>
       <c r="G3">
-        <v>2.098680031390429</v>
+        <v>3.564093151986333</v>
       </c>
       <c r="H3">
-        <v>2.146306044595225</v>
+        <v>1.981765134143115</v>
       </c>
       <c r="I3">
-        <v>2.707087411092494</v>
+        <v>2.491772056325093</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>13.5419361246969</v>
+        <v>12.89195912293372</v>
       </c>
       <c r="L3">
-        <v>6.264468026522467</v>
+        <v>11.29351640941862</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.790803916674413</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.341079126500452</v>
       </c>
       <c r="O3">
-        <v>14.80163389773097</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>15.54413952509551</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>14.87700977098476</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.87858606087018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.46812129882093</v>
+        <v>18.57198913166341</v>
       </c>
       <c r="C4">
-        <v>14.06389513466535</v>
+        <v>14.36923186874778</v>
       </c>
       <c r="D4">
-        <v>6.2491622574984</v>
+        <v>6.477092568962793</v>
       </c>
       <c r="E4">
-        <v>8.972071868889572</v>
+        <v>9.222479744234859</v>
       </c>
       <c r="F4">
-        <v>21.55938114970155</v>
+        <v>20.86046211027474</v>
       </c>
       <c r="G4">
-        <v>2.101342766869791</v>
+        <v>3.910313929068116</v>
       </c>
       <c r="H4">
-        <v>2.290819414833046</v>
+        <v>2.111327357322987</v>
       </c>
       <c r="I4">
-        <v>2.813911241835664</v>
+        <v>2.578848731695793</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>13.6826163732399</v>
+        <v>13.02096475229603</v>
       </c>
       <c r="L4">
-        <v>6.219635400024965</v>
+        <v>11.41838381291662</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.897249948145232</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.306573545770297</v>
       </c>
       <c r="O4">
-        <v>14.23978920123147</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15.50670118313383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.2998698964368</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.82953883061587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.0985425377148</v>
+        <v>18.20867432894367</v>
       </c>
       <c r="C5">
-        <v>13.8130665766957</v>
+        <v>14.09558441047178</v>
       </c>
       <c r="D5">
-        <v>6.189408325222288</v>
+        <v>6.421493101925811</v>
       </c>
       <c r="E5">
-        <v>8.908110234292835</v>
+        <v>9.167896392639548</v>
       </c>
       <c r="F5">
-        <v>21.46966531713559</v>
+        <v>20.76921261937719</v>
       </c>
       <c r="G5">
-        <v>2.102455473192489</v>
+        <v>4.0550704480666</v>
       </c>
       <c r="H5">
-        <v>2.351173747740378</v>
+        <v>2.16545710807041</v>
       </c>
       <c r="I5">
-        <v>2.861478989065012</v>
+        <v>2.618905867898392</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>13.73569824174031</v>
+        <v>13.06907737572481</v>
       </c>
       <c r="L5">
-        <v>6.200557114058992</v>
+        <v>11.46513957678727</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.942668357371309</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.291819875185331</v>
       </c>
       <c r="O5">
-        <v>14.00729394492846</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15.48612432179769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.06067581394926</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.80346307629426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.03534440425575</v>
+        <v>18.14657400713417</v>
       </c>
       <c r="C6">
-        <v>13.78642103694959</v>
+        <v>14.06456874248803</v>
       </c>
       <c r="D6">
-        <v>6.181667280551798</v>
+        <v>6.414349798198334</v>
       </c>
       <c r="E6">
-        <v>8.897456906443729</v>
+        <v>9.158841950531023</v>
       </c>
       <c r="F6">
-        <v>21.44326558685453</v>
+        <v>20.74277135353316</v>
       </c>
       <c r="G6">
-        <v>2.102648352776985</v>
+        <v>4.080197461028747</v>
       </c>
       <c r="H6">
-        <v>2.361513899998229</v>
+        <v>2.174726324816553</v>
       </c>
       <c r="I6">
-        <v>2.873242762116635</v>
+        <v>2.630241560904787</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>13.73788678023394</v>
+        <v>13.07077452132499</v>
       </c>
       <c r="L6">
-        <v>6.196792679111144</v>
+        <v>11.46668415672443</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.94744235155687</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.288820101192556</v>
       </c>
       <c r="O6">
-        <v>13.9716873251584</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15.4739963603661</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.0238014858555</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.79052912667495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.46034988829422</v>
+        <v>18.56392155652935</v>
       </c>
       <c r="C7">
-        <v>14.10178167565519</v>
+        <v>14.38297691795331</v>
       </c>
       <c r="D7">
-        <v>6.254366458929822</v>
+        <v>6.494346894289197</v>
       </c>
       <c r="E7">
-        <v>8.971287078627547</v>
+        <v>9.225184687960892</v>
       </c>
       <c r="F7">
-        <v>21.52664515929904</v>
+        <v>20.77397556663</v>
       </c>
       <c r="G7">
-        <v>2.101375782753694</v>
+        <v>3.974171579042523</v>
       </c>
       <c r="H7">
-        <v>2.292272999716152</v>
+        <v>2.114062196983639</v>
       </c>
       <c r="I7">
-        <v>2.824621076193023</v>
+        <v>2.592975257413494</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.66500052915179</v>
+        <v>12.98434982908216</v>
       </c>
       <c r="L7">
-        <v>6.217824557416305</v>
+        <v>11.38300551347973</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.878671108303009</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.303314098198181</v>
       </c>
       <c r="O7">
-        <v>14.24569494888934</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15.4823821920309</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.3046955460843</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.76330385234474</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.227668333415</v>
+        <v>20.30132095595673</v>
       </c>
       <c r="C8">
-        <v>15.38800597890945</v>
+        <v>15.72981119727081</v>
       </c>
       <c r="D8">
-        <v>6.56213111963441</v>
+        <v>6.810518370841763</v>
       </c>
       <c r="E8">
-        <v>9.288719455305593</v>
+        <v>9.505607216773324</v>
       </c>
       <c r="F8">
-        <v>21.94048416074076</v>
+        <v>21.06696376993338</v>
       </c>
       <c r="G8">
-        <v>2.095935216924579</v>
+        <v>3.571981782337554</v>
       </c>
       <c r="H8">
-        <v>1.99716062042999</v>
+        <v>1.852626815418577</v>
       </c>
       <c r="I8">
-        <v>2.609861558411859</v>
+        <v>2.544848491618235</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.37182583021652</v>
+        <v>12.66959936831285</v>
       </c>
       <c r="L8">
-        <v>6.30918155230192</v>
+        <v>11.08746305128932</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.637247441664025</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.370095664845612</v>
       </c>
       <c r="O8">
-        <v>15.39032265411228</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15.55929453647253</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.4782367417456</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.76597630179033</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.30123897990351</v>
+        <v>23.32593333286263</v>
       </c>
       <c r="C9">
-        <v>17.60930875507514</v>
+        <v>18.12949317686022</v>
       </c>
       <c r="D9">
-        <v>7.125823576081644</v>
+        <v>7.35548302229588</v>
       </c>
       <c r="E9">
-        <v>9.87877861015196</v>
+        <v>10.02142779325158</v>
       </c>
       <c r="F9">
-        <v>22.85977430802554</v>
+        <v>21.91593589667411</v>
       </c>
       <c r="G9">
-        <v>2.085903447178919</v>
+        <v>2.515045457413148</v>
       </c>
       <c r="H9">
-        <v>1.662744151035115</v>
+        <v>1.7472340048076</v>
       </c>
       <c r="I9">
-        <v>2.741909331609256</v>
+        <v>2.858348851060483</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.87195566754395</v>
+        <v>12.177993247556</v>
       </c>
       <c r="L9">
-        <v>6.4804117626981</v>
+        <v>10.63634955619586</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.374550297523355</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.501395413957481</v>
       </c>
       <c r="O9">
-        <v>17.41273317619686</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15.81671398139891</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.54889559556504</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>15.00079403050189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.34167819153578</v>
+        <v>25.33326758087111</v>
       </c>
       <c r="C10">
-        <v>19.10618113049768</v>
+        <v>19.62664788385116</v>
       </c>
       <c r="D10">
-        <v>7.456044399414965</v>
+        <v>7.73741062451306</v>
       </c>
       <c r="E10">
-        <v>10.14057016239489</v>
+        <v>10.25443274960705</v>
       </c>
       <c r="F10">
-        <v>23.36395356108272</v>
+        <v>22.07886308045292</v>
       </c>
       <c r="G10">
-        <v>2.079041890324732</v>
+        <v>3.742042932362256</v>
       </c>
       <c r="H10">
-        <v>2.019438239636604</v>
+        <v>2.057880378093452</v>
       </c>
       <c r="I10">
-        <v>3.011913194275176</v>
+        <v>3.073046030184034</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.46283278462914</v>
+        <v>11.6694161971155</v>
       </c>
       <c r="L10">
-        <v>6.54562745318035</v>
+        <v>10.22128302666316</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.132105393906133</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.533017686155225</v>
       </c>
       <c r="O10">
-        <v>18.67459979037904</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15.93194294342314</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>18.83219124875366</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.86264530109976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.41062540202415</v>
+        <v>26.39481837959498</v>
       </c>
       <c r="C11">
-        <v>19.73661071443965</v>
+        <v>19.96812533740555</v>
       </c>
       <c r="D11">
-        <v>7.050117706150467</v>
+        <v>7.438030917766898</v>
       </c>
       <c r="E11">
-        <v>9.063455802531859</v>
+        <v>9.187754120082678</v>
       </c>
       <c r="F11">
-        <v>21.94462327492186</v>
+        <v>20.15446014201135</v>
       </c>
       <c r="G11">
-        <v>2.076988215968351</v>
+        <v>7.754598260907699</v>
       </c>
       <c r="H11">
-        <v>2.904575411086499</v>
+        <v>2.914618339295087</v>
       </c>
       <c r="I11">
-        <v>3.104922228190738</v>
+        <v>3.141056669800853</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.74810358698883</v>
+        <v>10.90505792611743</v>
       </c>
       <c r="L11">
-        <v>6.203918402835378</v>
+        <v>9.734348763901005</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.489706493681837</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.183509558499893</v>
       </c>
       <c r="O11">
-        <v>18.40103939921119</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15.05182625900945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.53334958480811</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.59319361895746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.90527190472419</v>
+        <v>26.89107027445542</v>
       </c>
       <c r="C12">
-        <v>19.914747630573</v>
+        <v>19.96350415960302</v>
       </c>
       <c r="D12">
-        <v>6.633783231680514</v>
+        <v>7.057279624741454</v>
       </c>
       <c r="E12">
-        <v>8.271912674329657</v>
+        <v>8.383647951791861</v>
       </c>
       <c r="F12">
-        <v>20.6719479878332</v>
+        <v>18.71953277682725</v>
       </c>
       <c r="G12">
-        <v>2.076561046694845</v>
+        <v>9.668780183278601</v>
       </c>
       <c r="H12">
-        <v>4.165597735224233</v>
+        <v>4.169102107770344</v>
       </c>
       <c r="I12">
-        <v>3.125616924410087</v>
+        <v>3.153876681149143</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.29174176709142</v>
+        <v>10.5224724573944</v>
       </c>
       <c r="L12">
-        <v>6.044392780762588</v>
+        <v>9.524615854214714</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.113889522117457</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.031077315653324</v>
       </c>
       <c r="O12">
-        <v>17.88842826277556</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14.31273057774607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>17.9979910439571</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.73774310134453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.00137809685823</v>
+        <v>26.99590949661906</v>
       </c>
       <c r="C13">
-        <v>19.81004936919541</v>
+        <v>19.78257928673837</v>
       </c>
       <c r="D13">
-        <v>6.18622780851903</v>
+        <v>6.569833044046029</v>
       </c>
       <c r="E13">
-        <v>7.696545863288315</v>
+        <v>7.781963130249029</v>
       </c>
       <c r="F13">
-        <v>19.37976018985828</v>
+        <v>17.62380550101792</v>
       </c>
       <c r="G13">
-        <v>2.077387759216807</v>
+        <v>9.253580724880891</v>
       </c>
       <c r="H13">
-        <v>5.488533997123755</v>
+        <v>5.493409967058477</v>
       </c>
       <c r="I13">
-        <v>3.096224515477198</v>
+        <v>3.131663892677901</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>10.98653080686966</v>
+        <v>10.37404185510364</v>
       </c>
       <c r="L13">
-        <v>6.019719315624014</v>
+        <v>9.453569153357485</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.929152132421523</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.02281919842575</v>
       </c>
       <c r="O13">
-        <v>17.15653585192268</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13.59953912253663</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.24410397749353</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.18772055865837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.88949788783545</v>
+        <v>26.89329482622219</v>
       </c>
       <c r="C14">
-        <v>19.61699662175324</v>
+        <v>19.58100781879727</v>
       </c>
       <c r="D14">
-        <v>5.860124252761984</v>
+        <v>6.186038144843542</v>
       </c>
       <c r="E14">
-        <v>7.450673416262966</v>
+        <v>7.520699100386986</v>
       </c>
       <c r="F14">
-        <v>18.46225314895849</v>
+        <v>16.98924678130835</v>
       </c>
       <c r="G14">
-        <v>2.078531884029465</v>
+        <v>7.939306175197536</v>
       </c>
       <c r="H14">
-        <v>6.443790274992225</v>
+        <v>6.443644504536077</v>
       </c>
       <c r="I14">
-        <v>3.054232399615933</v>
+        <v>3.101530320427556</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>10.84894586011905</v>
+        <v>10.35701480607567</v>
       </c>
       <c r="L14">
-        <v>6.082762751906066</v>
+        <v>9.446802682161264</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.880277042733397</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.098504246213267</v>
       </c>
       <c r="O14">
-        <v>16.5365914273383</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.11069265794533</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.60832802655286</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.92275658924264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.77543454113336</v>
+        <v>26.78303041805314</v>
       </c>
       <c r="C15">
-        <v>19.52137447834734</v>
+        <v>19.50247014741859</v>
       </c>
       <c r="D15">
-        <v>5.775001383606402</v>
+        <v>6.075211201161057</v>
       </c>
       <c r="E15">
-        <v>7.411964688347219</v>
+        <v>7.48198158708753</v>
       </c>
       <c r="F15">
-        <v>18.22748135406207</v>
+        <v>16.88320146877088</v>
       </c>
       <c r="G15">
-        <v>2.079098831410193</v>
+        <v>7.183216599698154</v>
       </c>
       <c r="H15">
-        <v>6.683274268676286</v>
+        <v>6.677421611132011</v>
       </c>
       <c r="I15">
-        <v>3.034368686795406</v>
+        <v>3.088157093013808</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>10.84029563056482</v>
+        <v>10.38276072455347</v>
       </c>
       <c r="L15">
-        <v>6.106240112754628</v>
+        <v>9.458675808145909</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.895969353115588</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.12593027135188</v>
       </c>
       <c r="O15">
-        <v>16.34043115603672</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12.9914833448361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.40802936202646</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.9032276234403</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.93455770291404</v>
+        <v>25.95645335616937</v>
       </c>
       <c r="C16">
-        <v>18.94511944631569</v>
+        <v>19.08934483422203</v>
       </c>
       <c r="D16">
-        <v>5.711251805278024</v>
+        <v>5.916916450137924</v>
       </c>
       <c r="E16">
-        <v>7.396994637771326</v>
+        <v>7.496909532963812</v>
       </c>
       <c r="F16">
-        <v>18.23256908632961</v>
+        <v>17.37954027854886</v>
       </c>
       <c r="G16">
-        <v>2.081870499597683</v>
+        <v>3.677696879922466</v>
       </c>
       <c r="H16">
-        <v>6.473539730803432</v>
+        <v>6.46096219348356</v>
       </c>
       <c r="I16">
-        <v>2.927329299035484</v>
+        <v>3.011249722413312</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>11.07883749796174</v>
+        <v>10.67588275642301</v>
       </c>
       <c r="L16">
-        <v>6.075296409204906</v>
+        <v>9.606472279860498</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>6.15325977527181</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.107326261993631</v>
       </c>
       <c r="O16">
-        <v>15.92058177541958</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>13.06833290620411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>15.98660649673297</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.35202863527347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.33614520909423</v>
+        <v>25.36392550016829</v>
       </c>
       <c r="C17">
-        <v>18.60265978001115</v>
+        <v>18.85190429478047</v>
       </c>
       <c r="D17">
-        <v>5.83857879099472</v>
+        <v>6.012532034258867</v>
       </c>
       <c r="E17">
-        <v>7.488462138607807</v>
+        <v>7.60803263804782</v>
       </c>
       <c r="F17">
-        <v>18.72575495275881</v>
+        <v>18.04678717316387</v>
       </c>
       <c r="G17">
-        <v>2.083396961615734</v>
+        <v>2.385116727925405</v>
       </c>
       <c r="H17">
-        <v>5.730089202567149</v>
+        <v>5.711506666858972</v>
       </c>
       <c r="I17">
-        <v>2.867633526797014</v>
+        <v>2.967516303187758</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>11.32707060363459</v>
+        <v>10.92127401075863</v>
       </c>
       <c r="L17">
-        <v>6.005615309864487</v>
+        <v>9.749843654635383</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>6.365715540367265</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.043075154541515</v>
       </c>
       <c r="O17">
-        <v>15.93950397628248</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13.38532458068286</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.01240536788104</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.79802525656239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.89324645477735</v>
+        <v>24.92037266273633</v>
       </c>
       <c r="C18">
-        <v>18.40219211725358</v>
+        <v>18.75527911811633</v>
       </c>
       <c r="D18">
-        <v>6.148352886090209</v>
+        <v>6.317216224119739</v>
       </c>
       <c r="E18">
-        <v>7.832521641645738</v>
+        <v>7.959331281035263</v>
       </c>
       <c r="F18">
-        <v>19.7214938880072</v>
+        <v>19.06551097325193</v>
       </c>
       <c r="G18">
-        <v>2.083950014633955</v>
+        <v>1.978910670951408</v>
       </c>
       <c r="H18">
-        <v>4.459206244119578</v>
+        <v>4.4332801230393</v>
       </c>
       <c r="I18">
-        <v>2.839637693733271</v>
+        <v>2.945098626616725</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>11.64449877842271</v>
+        <v>11.19782443817456</v>
       </c>
       <c r="L18">
-        <v>5.969825667652778</v>
+        <v>9.928965228715377</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.606164068658581</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.006756071696842</v>
       </c>
       <c r="O18">
-        <v>16.33478029539158</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13.96422491031781</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.4246877376102</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.39061163516491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.61237967800552</v>
+        <v>24.63383375943885</v>
       </c>
       <c r="C19">
-        <v>18.39655053832562</v>
+        <v>18.85664176906541</v>
       </c>
       <c r="D19">
-        <v>6.597632181368096</v>
+        <v>6.775099774483833</v>
       </c>
       <c r="E19">
-        <v>8.54134435652526</v>
+        <v>8.664267924929772</v>
       </c>
       <c r="F19">
-        <v>21.00877756345844</v>
+        <v>20.29258609493048</v>
       </c>
       <c r="G19">
-        <v>2.083630023020828</v>
+        <v>1.839943222907155</v>
       </c>
       <c r="H19">
-        <v>2.973830563028377</v>
+        <v>3.015604907062632</v>
       </c>
       <c r="I19">
-        <v>2.850361284170389</v>
+        <v>2.954985480483925</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.00511672630267</v>
+        <v>11.49138841660311</v>
       </c>
       <c r="L19">
-        <v>6.074005766689005</v>
+        <v>10.12785268126619</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.865027664259406</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.103469544918696</v>
       </c>
       <c r="O19">
-        <v>17.00653897892705</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14.68096778099239</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.12001800935183</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>14.05821592907177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.81640397025242</v>
+        <v>24.81806918044807</v>
       </c>
       <c r="C20">
-        <v>18.82266752951526</v>
+        <v>19.40213664911025</v>
       </c>
       <c r="D20">
-        <v>7.383569647592742</v>
+        <v>7.611947842512656</v>
       </c>
       <c r="E20">
-        <v>10.06644855924996</v>
+        <v>10.17626319608662</v>
       </c>
       <c r="F20">
-        <v>23.13146367847558</v>
+        <v>22.11772328166423</v>
       </c>
       <c r="G20">
-        <v>2.080868838918622</v>
+        <v>2.286411519379752</v>
       </c>
       <c r="H20">
-        <v>1.923712313679333</v>
+        <v>1.978402197398266</v>
       </c>
       <c r="I20">
-        <v>2.952085492545815</v>
+        <v>3.034421831708424</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.50813438712202</v>
+        <v>11.8165199058678</v>
       </c>
       <c r="L20">
-        <v>6.522166120469717</v>
+        <v>10.33584207186993</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.204994905013233</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.5234575726355</v>
       </c>
       <c r="O20">
-        <v>18.36904391432402</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15.82288671345235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.52260489571401</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.96690152912866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.27365691121947</v>
+        <v>26.24357121365502</v>
       </c>
       <c r="C21">
-        <v>19.91172911734678</v>
+        <v>20.19236853016974</v>
       </c>
       <c r="D21">
-        <v>7.727614629447031</v>
+        <v>8.203713988934776</v>
       </c>
       <c r="E21">
-        <v>10.49387187864741</v>
+        <v>10.64785409879677</v>
       </c>
       <c r="F21">
-        <v>23.83818775420645</v>
+        <v>21.62087001070704</v>
       </c>
       <c r="G21">
-        <v>2.075515611100965</v>
+        <v>9.423007475091048</v>
       </c>
       <c r="H21">
-        <v>2.207700011627498</v>
+        <v>2.207743531723428</v>
       </c>
       <c r="I21">
-        <v>3.159636803411714</v>
+        <v>3.181227404487286</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>12.31026597928802</v>
+        <v>11.18356713138402</v>
       </c>
       <c r="L21">
-        <v>6.654409863001056</v>
+        <v>9.89256230744922</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>6.791491163219495</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.603465731158294</v>
       </c>
       <c r="O21">
-        <v>19.43949745464842</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16.10449726385053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.60048351998039</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.29574591866597</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.19769775994256</v>
+        <v>27.14862786143342</v>
       </c>
       <c r="C22">
-        <v>20.55577000193646</v>
+        <v>20.62370876746214</v>
       </c>
       <c r="D22">
-        <v>7.908041349406522</v>
+        <v>8.560204167878817</v>
       </c>
       <c r="E22">
-        <v>10.69129940040738</v>
+        <v>10.88450738542043</v>
       </c>
       <c r="F22">
-        <v>24.24453542200566</v>
+        <v>21.18531588809001</v>
       </c>
       <c r="G22">
-        <v>2.072123461118338</v>
+        <v>14.50394074353003</v>
       </c>
       <c r="H22">
-        <v>2.384472855680471</v>
+        <v>2.350869613343721</v>
       </c>
       <c r="I22">
-        <v>3.287589959007797</v>
+        <v>3.270425801230005</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>12.18097842468939</v>
+        <v>10.76024391224746</v>
       </c>
       <c r="L22">
-        <v>6.713950913132538</v>
+        <v>9.630883655136568</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>6.494846405836071</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.630220454039666</v>
       </c>
       <c r="O22">
-        <v>20.05645390233602</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>16.27224754848469</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.21869355160047</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.7921860689458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.71081067034065</v>
+        <v>26.67215950119336</v>
       </c>
       <c r="C23">
-        <v>20.17873908964889</v>
+        <v>20.403907781014</v>
       </c>
       <c r="D23">
-        <v>7.806339806960757</v>
+        <v>8.335907644562726</v>
       </c>
       <c r="E23">
-        <v>10.58608977799543</v>
+        <v>10.74812230600014</v>
       </c>
       <c r="F23">
-        <v>24.06009595438178</v>
+        <v>21.57440481564647</v>
       </c>
       <c r="G23">
-        <v>2.073912880817145</v>
+        <v>10.97445993368287</v>
       </c>
       <c r="H23">
-        <v>2.290979677689746</v>
+        <v>2.2771384022887</v>
       </c>
       <c r="I23">
-        <v>3.215586185308405</v>
+        <v>3.21950649916046</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>12.27156615720784</v>
+        <v>11.04281647319806</v>
       </c>
       <c r="L23">
-        <v>6.683831273155589</v>
+        <v>9.798018576165621</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>6.714508302482535</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.620323038600677</v>
       </c>
       <c r="O23">
-        <v>19.72160427130882</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>16.20834692332222</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>19.88532019336401</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.18513595635174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.77749835449178</v>
+        <v>24.77857740377398</v>
       </c>
       <c r="C24">
-        <v>18.75275543237321</v>
+        <v>19.34687977932828</v>
       </c>
       <c r="D24">
-        <v>7.421114320286754</v>
+        <v>7.649380479900286</v>
       </c>
       <c r="E24">
-        <v>10.17939919736285</v>
+        <v>10.28848373597604</v>
       </c>
       <c r="F24">
-        <v>23.32077556954906</v>
+        <v>22.30501620388223</v>
       </c>
       <c r="G24">
-        <v>2.080835018714478</v>
+        <v>2.226887042356581</v>
       </c>
       <c r="H24">
-        <v>1.929028266401747</v>
+        <v>1.98395535415896</v>
       </c>
       <c r="I24">
-        <v>2.944962793500737</v>
+        <v>3.025539895325553</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.59296025614718</v>
+        <v>11.88986404848591</v>
       </c>
       <c r="L24">
-        <v>6.565159383842333</v>
+        <v>10.3853742505834</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.268928021172758</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.565395816828423</v>
       </c>
       <c r="O24">
-        <v>18.41599529254589</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>15.94308415256987</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.57243295937505</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>15.08483814419956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.50773230501409</v>
+        <v>22.54567259423631</v>
       </c>
       <c r="C25">
-        <v>17.09620032377341</v>
+        <v>17.59587921599624</v>
       </c>
       <c r="D25">
-        <v>6.986615679842758</v>
+        <v>7.203889051450736</v>
       </c>
       <c r="E25">
-        <v>9.723077630495455</v>
+        <v>9.880094364802368</v>
       </c>
       <c r="F25">
-        <v>22.5519359979918</v>
+        <v>21.70548175443977</v>
       </c>
       <c r="G25">
-        <v>2.088576076503077</v>
+        <v>2.507265778888687</v>
       </c>
       <c r="H25">
-        <v>1.599283641746461</v>
+        <v>1.624178827578063</v>
       </c>
       <c r="I25">
-        <v>2.645302920804622</v>
+        <v>2.783972985244034</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.96898484285914</v>
+        <v>12.30608477212462</v>
       </c>
       <c r="L25">
-        <v>6.432643940219937</v>
+        <v>10.75336838346546</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.426046079063077</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.46641113188087</v>
       </c>
       <c r="O25">
-        <v>16.90212429775486</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>15.69772905034637</v>
+        <v>17.02678543401427</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.95086750936017</v>
       </c>
     </row>
   </sheetData>
